--- a/sqlserver2012/docs/sql2012_ParamGenerator.xlsx
+++ b/sqlserver2012/docs/sql2012_ParamGenerator.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$L$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$L$72</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="590">
   <si>
     <t>SQL Server component</t>
   </si>
@@ -2331,6 +2331,15 @@
   </si>
   <si>
     <t>Install</t>
+  </si>
+  <si>
+    <t>NT Service\MSSQLSERVER</t>
+  </si>
+  <si>
+    <t>$thisUser</t>
+  </si>
+  <si>
+    <t>SQLENGINE</t>
   </si>
 </sst>
 </file>
@@ -2410,7 +2419,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2442,6 +2451,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2761,9 +2773,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D72" sqref="D72"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2779,6 +2791,7 @@
     <col min="9" max="10" width="27.28515625" customWidth="1"/>
     <col min="11" max="11" width="30" customWidth="1"/>
     <col min="12" max="12" width="113.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="36.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2897,7 +2910,7 @@
         <v>1</v>
       </c>
       <c r="G5" t="str">
-        <f t="shared" ref="G5:G13" si="0">SUBSTITUTE(B5,"/","")</f>
+        <f t="shared" ref="G5:G7" si="0">SUBSTITUTE(B5,"/","")</f>
         <v>IACCEPTSQLSERVERLICENSETERMS</v>
       </c>
       <c r="H5" t="str">
@@ -3137,6 +3150,9 @@
       <c r="D11" s="8" t="s">
         <v>547</v>
       </c>
+      <c r="F11" s="14" t="s">
+        <v>589</v>
+      </c>
       <c r="G11" t="str">
         <f t="shared" si="5"/>
         <v>FEATURES</v>
@@ -3149,11 +3165,11 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>if (!(Test-Path env:\choco:sqlserver2012:FEATURES)){$env:choco:sqlserver2012:FEATURES="SQLENGINE"}</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" si="3"/>
@@ -3500,6 +3516,9 @@
       <c r="E20">
         <v>1</v>
       </c>
+      <c r="F20" t="b">
+        <v>1</v>
+      </c>
       <c r="G20" t="str">
         <f t="shared" si="5"/>
         <v>Q</v>
@@ -3516,7 +3535,7 @@
       </c>
       <c r="K20" t="str">
         <f t="shared" si="2"/>
-        <v>if (!(Test-Path env:\choco:sqlserver2012:Q)){$env:choco:sqlserver2012:Q=""}</v>
+        <v>if (!(Test-Path env:\choco:sqlserver2012:Q)){$env:choco:sqlserver2012:Q="TRUE"}</v>
       </c>
       <c r="L20" t="str">
         <f t="shared" si="3"/>
@@ -4656,6 +4675,9 @@
       <c r="D51" s="9" t="s">
         <v>569</v>
       </c>
+      <c r="F51" t="b">
+        <v>1</v>
+      </c>
       <c r="G51" t="str">
         <f t="shared" si="5"/>
         <v>ADDCURRENTUSERASSQLADMIN</v>
@@ -4667,9 +4689,12 @@
       <c r="I51">
         <v>1</v>
       </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
       <c r="K51" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>if (!(Test-Path env:\choco:sqlserver2012:ADDCURRENTUSERASSQLADMIN)){$env:choco:sqlserver2012:ADDCURRENTUSERASSQLADMIN="TRUE"}</v>
       </c>
       <c r="L51" t="str">
         <f t="shared" si="3"/>
@@ -4693,6 +4718,9 @@
       <c r="D52" s="10" t="s">
         <v>166</v>
       </c>
+      <c r="F52" t="s">
+        <v>587</v>
+      </c>
       <c r="G52" t="str">
         <f t="shared" si="5"/>
         <v>SQLSVCACCOUNT</v>
@@ -4704,9 +4732,12 @@
       <c r="I52">
         <v>1</v>
       </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
       <c r="K52" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>if (!(Test-Path env:\choco:sqlserver2012:SQLSVCACCOUNT)){$env:choco:sqlserver2012:SQLSVCACCOUNT="NT Service\MSSQLSERVER"}</v>
       </c>
       <c r="L52" t="str">
         <f t="shared" si="3"/>
@@ -4804,6 +4835,9 @@
       <c r="D55" s="8" t="s">
         <v>571</v>
       </c>
+      <c r="F55" s="14" t="s">
+        <v>588</v>
+      </c>
       <c r="G55" t="str">
         <f t="shared" si="5"/>
         <v>SQLSYSADMINACCOUNTS</v>
@@ -4815,9 +4849,12 @@
       <c r="I55">
         <v>1</v>
       </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
       <c r="K55" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>if (!(Test-Path env:\choco:sqlserver2012:SQLSYSADMINACCOUNTS)){$env:choco:sqlserver2012:SQLSYSADMINACCOUNTS="$thisUser"}</v>
       </c>
       <c r="L55" t="str">
         <f t="shared" si="3"/>
@@ -5458,7 +5495,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:L22"/>
+  <autoFilter ref="A3:L72"/>
   <hyperlinks>
     <hyperlink ref="D1" r:id="rId1"/>
     <hyperlink ref="D9" r:id="rId2" display="https://technet.microsoft.com/en-au/library/dd239405%28v=sql.110%29.aspx"/>
@@ -5508,7 +5545,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -5519,12 +5556,12 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
@@ -5533,122 +5570,122 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="15" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="14"/>
+      <c r="C6" s="15"/>
     </row>
     <row r="7" spans="1:3" ht="195" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="14"/>
+      <c r="C7" s="15"/>
     </row>
     <row r="8" spans="1:3" ht="390" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="14"/>
+      <c r="C9" s="15"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="14"/>
+      <c r="C10" s="15"/>
     </row>
     <row r="11" spans="1:3" ht="360" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="14"/>
+      <c r="C12" s="15"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="14"/>
+      <c r="C13" s="15"/>
     </row>
     <row r="14" spans="1:3" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="14"/>
+      <c r="C15" s="15"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="14"/>
+      <c r="C16" s="15"/>
     </row>
     <row r="17" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="15"/>
+      <c r="C18" s="16"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="15"/>
+      <c r="C19" s="16"/>
     </row>
     <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -5659,12 +5696,12 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
+      <c r="A21" s="15"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
+      <c r="A22" s="15"/>
       <c r="B22" s="3" t="s">
         <v>12</v>
       </c>
@@ -5673,43 +5710,43 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
+      <c r="A23" s="15"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
+      <c r="A24" s="15"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
+      <c r="A26" s="15"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
+      <c r="A27" s="15"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
+      <c r="A28" s="15"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -5720,12 +5757,12 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
+      <c r="A30" s="15"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
+      <c r="A31" s="15"/>
       <c r="B31" s="2" t="s">
         <v>27</v>
       </c>
@@ -5734,12 +5771,12 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
+      <c r="A32" s="15"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
     </row>
     <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
+      <c r="A33" s="15"/>
       <c r="B33" s="2" t="s">
         <v>28</v>
       </c>
@@ -5748,65 +5785,65 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
+      <c r="A34" s="15"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
+      <c r="A35" s="15"/>
       <c r="B35" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C35" s="2"/>
     </row>
     <row r="36" spans="1:3" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
+      <c r="A37" s="15"/>
       <c r="B37" s="2"/>
-      <c r="C37" s="14"/>
+      <c r="C37" s="15"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
+      <c r="A38" s="15"/>
       <c r="B38" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C38" s="14"/>
+      <c r="C38" s="15"/>
     </row>
     <row r="39" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C39" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
+      <c r="A40" s="15"/>
       <c r="B40" s="2"/>
-      <c r="C40" s="14"/>
+      <c r="C40" s="15"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
+      <c r="A41" s="15"/>
       <c r="B41" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="14"/>
+      <c r="C41" s="15"/>
     </row>
     <row r="42" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -5817,12 +5854,12 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
+      <c r="A43" s="15"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
+      <c r="A44" s="15"/>
       <c r="B44" s="3" t="s">
         <v>12</v>
       </c>
@@ -5831,19 +5868,19 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
+      <c r="A45" s="15"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
     <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
+      <c r="A46" s="15"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -5854,12 +5891,12 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
+      <c r="A48" s="15"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
     </row>
     <row r="49" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
+      <c r="A49" s="15"/>
       <c r="B49" s="3" t="s">
         <v>12</v>
       </c>
@@ -5868,65 +5905,65 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
+      <c r="A50" s="15"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
     </row>
     <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="14"/>
+      <c r="A51" s="15"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="150" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C52" s="15" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
+      <c r="A53" s="15"/>
       <c r="B53" s="2"/>
-      <c r="C53" s="14"/>
+      <c r="C53" s="15"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="14"/>
+      <c r="A54" s="15"/>
       <c r="B54" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C54" s="14"/>
+      <c r="C54" s="15"/>
     </row>
     <row r="55" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="14" t="s">
+      <c r="A55" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C55" s="15" t="s">
+      <c r="C55" s="16" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="14"/>
+      <c r="A56" s="15"/>
       <c r="B56" s="2"/>
-      <c r="C56" s="15"/>
+      <c r="C56" s="16"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
+      <c r="A57" s="15"/>
       <c r="B57" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C57" s="15"/>
+      <c r="C57" s="16"/>
     </row>
     <row r="58" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="14" t="s">
+      <c r="A58" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B58" s="2" t="s">
@@ -5937,12 +5974,12 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="14"/>
+      <c r="A59" s="15"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="14"/>
+      <c r="A60" s="15"/>
       <c r="B60" s="3" t="s">
         <v>5</v>
       </c>
@@ -5951,76 +5988,76 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="165" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="14" t="s">
+      <c r="A61" s="15" t="s">
         <v>51</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C61" s="14" t="s">
+      <c r="C61" s="15" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="14"/>
+      <c r="A62" s="15"/>
       <c r="B62" s="2"/>
-      <c r="C62" s="14"/>
+      <c r="C62" s="15"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="14"/>
+      <c r="A63" s="15"/>
       <c r="B63" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C63" s="14"/>
+      <c r="C63" s="15"/>
     </row>
     <row r="64" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="14" t="s">
+      <c r="A64" s="15" t="s">
         <v>51</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C64" s="14" t="s">
+      <c r="C64" s="15" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="14"/>
+      <c r="A65" s="15"/>
       <c r="B65" s="2"/>
-      <c r="C65" s="14"/>
+      <c r="C65" s="15"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="14"/>
+      <c r="A66" s="15"/>
       <c r="B66" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C66" s="14"/>
+      <c r="C66" s="15"/>
     </row>
     <row r="67" spans="1:3" ht="195" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="14" t="s">
+      <c r="A67" s="15" t="s">
         <v>51</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C67" s="14" t="s">
+      <c r="C67" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="14"/>
+      <c r="A68" s="15"/>
       <c r="B68" s="2"/>
-      <c r="C68" s="14"/>
+      <c r="C68" s="15"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="14"/>
+      <c r="A69" s="15"/>
       <c r="B69" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C69" s="14"/>
+      <c r="C69" s="15"/>
     </row>
     <row r="70" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="14" t="s">
+      <c r="A70" s="15" t="s">
         <v>51</v>
       </c>
       <c r="B70" s="2" t="s">
@@ -6031,12 +6068,12 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="14"/>
+      <c r="A71" s="15"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="14"/>
+      <c r="A72" s="15"/>
       <c r="B72" s="3" t="s">
         <v>12</v>
       </c>
@@ -6045,99 +6082,99 @@
       </c>
     </row>
     <row r="73" spans="1:3" ht="210" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="14" t="s">
+      <c r="A73" s="15" t="s">
         <v>51</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C73" s="14" t="s">
+      <c r="C73" s="15" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="14"/>
+      <c r="A74" s="15"/>
       <c r="B74" s="2"/>
-      <c r="C74" s="14"/>
+      <c r="C74" s="15"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="14"/>
+      <c r="A75" s="15"/>
       <c r="B75" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C75" s="14"/>
+      <c r="C75" s="15"/>
     </row>
     <row r="76" spans="1:3" ht="195" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="14" t="s">
+      <c r="A76" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C76" s="14" t="s">
+      <c r="C76" s="15" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="14"/>
+      <c r="A77" s="15"/>
       <c r="B77" s="2"/>
-      <c r="C77" s="14"/>
+      <c r="C77" s="15"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="14"/>
+      <c r="A78" s="15"/>
       <c r="B78" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C78" s="14"/>
+      <c r="C78" s="15"/>
     </row>
     <row r="79" spans="1:3" ht="195" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="14" t="s">
+      <c r="A79" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C79" s="14" t="s">
+      <c r="C79" s="15" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="14"/>
+      <c r="A80" s="15"/>
       <c r="B80" s="2"/>
-      <c r="C80" s="14"/>
+      <c r="C80" s="15"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="14"/>
+      <c r="A81" s="15"/>
       <c r="B81" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C81" s="14"/>
+      <c r="C81" s="15"/>
     </row>
     <row r="82" spans="1:3" ht="210" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="14" t="s">
+      <c r="A82" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C82" s="14" t="s">
+      <c r="C82" s="15" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="14"/>
+      <c r="A83" s="15"/>
       <c r="B83" s="2"/>
-      <c r="C83" s="14"/>
+      <c r="C83" s="15"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="14"/>
+      <c r="A84" s="15"/>
       <c r="B84" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C84" s="14"/>
+      <c r="C84" s="15"/>
     </row>
     <row r="85" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="14" t="s">
+      <c r="A85" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B85" s="2" t="s">
@@ -6148,12 +6185,12 @@
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="14"/>
+      <c r="A86" s="15"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
     </row>
     <row r="87" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A87" s="14"/>
+      <c r="A87" s="15"/>
       <c r="B87" s="3" t="s">
         <v>12</v>
       </c>
@@ -6162,55 +6199,55 @@
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="14"/>
+      <c r="A88" s="15"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
     </row>
     <row r="89" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A89" s="14"/>
+      <c r="A89" s="15"/>
       <c r="B89" s="2"/>
       <c r="C89" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="14"/>
+      <c r="A90" s="15"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
     </row>
     <row r="91" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="14"/>
+      <c r="A91" s="15"/>
       <c r="B91" s="2"/>
       <c r="C91" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="14"/>
+      <c r="A92" s="15"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
     </row>
     <row r="93" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A93" s="14"/>
+      <c r="A93" s="15"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="14"/>
+      <c r="A94" s="15"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
     </row>
     <row r="95" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A95" s="14"/>
+      <c r="A95" s="15"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A96" s="14" t="s">
+      <c r="A96" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B96" s="2" t="s">
@@ -6221,12 +6258,12 @@
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="14"/>
+      <c r="A97" s="15"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
     </row>
     <row r="98" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A98" s="14"/>
+      <c r="A98" s="15"/>
       <c r="B98" s="3" t="s">
         <v>12</v>
       </c>
@@ -6235,112 +6272,112 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="14"/>
+      <c r="A99" s="15"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="14"/>
+      <c r="A100" s="15"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="14"/>
+      <c r="A101" s="15"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="14"/>
+      <c r="A102" s="15"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="14"/>
+      <c r="A103" s="15"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="14"/>
+      <c r="A104" s="15"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="14" t="s">
+      <c r="A105" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C105" s="14" t="s">
+      <c r="C105" s="15" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="14"/>
+      <c r="A106" s="15"/>
       <c r="B106" s="2"/>
-      <c r="C106" s="14"/>
+      <c r="C106" s="15"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="14"/>
+      <c r="A107" s="15"/>
       <c r="B107" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C107" s="14"/>
+      <c r="C107" s="15"/>
     </row>
     <row r="108" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="14" t="s">
+      <c r="A108" s="15" t="s">
         <v>80</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C108" s="14" t="s">
+      <c r="C108" s="15" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="14"/>
+      <c r="A109" s="15"/>
       <c r="B109" s="2"/>
-      <c r="C109" s="14"/>
+      <c r="C109" s="15"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="14"/>
+      <c r="A110" s="15"/>
       <c r="B110" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C110" s="14"/>
+      <c r="C110" s="15"/>
     </row>
     <row r="111" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="14" t="s">
+      <c r="A111" s="15" t="s">
         <v>80</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C111" s="14" t="s">
+      <c r="C111" s="15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="14"/>
+      <c r="A112" s="15"/>
       <c r="B112" s="2"/>
-      <c r="C112" s="14"/>
+      <c r="C112" s="15"/>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="14"/>
+      <c r="A113" s="15"/>
       <c r="B113" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C113" s="14"/>
+      <c r="C113" s="15"/>
     </row>
     <row r="114" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A114" s="14" t="s">
+      <c r="A114" s="15" t="s">
         <v>80</v>
       </c>
       <c r="B114" s="2" t="s">
@@ -6351,12 +6388,12 @@
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="14"/>
+      <c r="A115" s="15"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="14"/>
+      <c r="A116" s="15"/>
       <c r="B116" s="3" t="s">
         <v>12</v>
       </c>
@@ -6365,43 +6402,43 @@
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="14"/>
+      <c r="A117" s="15"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="14"/>
+      <c r="A118" s="15"/>
       <c r="B118" s="2"/>
       <c r="C118" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="14"/>
+      <c r="A119" s="15"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="14"/>
+      <c r="A120" s="15"/>
       <c r="B120" s="2"/>
       <c r="C120" s="3" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="14"/>
+      <c r="A121" s="15"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="14"/>
+      <c r="A122" s="15"/>
       <c r="B122" s="2"/>
       <c r="C122" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A123" s="14" t="s">
+      <c r="A123" s="15" t="s">
         <v>90</v>
       </c>
       <c r="B123" s="2" t="s">
@@ -6412,12 +6449,12 @@
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="14"/>
+      <c r="A124" s="15"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
     </row>
     <row r="125" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A125" s="14"/>
+      <c r="A125" s="15"/>
       <c r="B125" s="3" t="s">
         <v>12</v>
       </c>
@@ -6426,19 +6463,19 @@
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="14"/>
+      <c r="A126" s="15"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
     </row>
     <row r="127" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A127" s="14"/>
+      <c r="A127" s="15"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A128" s="14" t="s">
+      <c r="A128" s="15" t="s">
         <v>90</v>
       </c>
       <c r="B128" s="2" t="s">
@@ -6449,12 +6486,12 @@
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="14"/>
+      <c r="A129" s="15"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="14"/>
+      <c r="A130" s="15"/>
       <c r="B130" s="3" t="s">
         <v>12</v>
       </c>
@@ -6463,7 +6500,7 @@
       </c>
     </row>
     <row r="131" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A131" s="14" t="s">
+      <c r="A131" s="15" t="s">
         <v>90</v>
       </c>
       <c r="B131" s="2" t="s">
@@ -6474,12 +6511,12 @@
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="14"/>
+      <c r="A132" s="15"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
     </row>
     <row r="133" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A133" s="14"/>
+      <c r="A133" s="15"/>
       <c r="B133" s="3" t="s">
         <v>12</v>
       </c>
@@ -6488,19 +6525,19 @@
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="14"/>
+      <c r="A134" s="15"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
     </row>
     <row r="135" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A135" s="14"/>
+      <c r="A135" s="15"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A136" s="14" t="s">
+      <c r="A136" s="15" t="s">
         <v>90</v>
       </c>
       <c r="B136" s="2" t="s">
@@ -6511,12 +6548,12 @@
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="14"/>
+      <c r="A137" s="15"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
     </row>
     <row r="138" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A138" s="14"/>
+      <c r="A138" s="15"/>
       <c r="B138" s="3" t="s">
         <v>12</v>
       </c>
@@ -6525,19 +6562,19 @@
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="14"/>
+      <c r="A139" s="15"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
     </row>
     <row r="140" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A140" s="14"/>
+      <c r="A140" s="15"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A141" s="14" t="s">
+      <c r="A141" s="15" t="s">
         <v>90</v>
       </c>
       <c r="B141" s="2" t="s">
@@ -6548,12 +6585,12 @@
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="14"/>
+      <c r="A142" s="15"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
     </row>
     <row r="143" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A143" s="14"/>
+      <c r="A143" s="15"/>
       <c r="B143" s="3" t="s">
         <v>12</v>
       </c>
@@ -6562,88 +6599,88 @@
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="14"/>
+      <c r="A144" s="15"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
     </row>
     <row r="145" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A145" s="14"/>
+      <c r="A145" s="15"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="14" t="s">
+      <c r="A146" s="15" t="s">
         <v>90</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C146" s="15" t="s">
+      <c r="C146" s="16" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="14"/>
+      <c r="A147" s="15"/>
       <c r="B147" s="2"/>
-      <c r="C147" s="15"/>
+      <c r="C147" s="16"/>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="14"/>
+      <c r="A148" s="15"/>
       <c r="B148" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C148" s="15"/>
+      <c r="C148" s="16"/>
     </row>
     <row r="149" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="14" t="s">
+      <c r="A149" s="15" t="s">
         <v>90</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C149" s="14" t="s">
+      <c r="C149" s="15" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="14"/>
+      <c r="A150" s="15"/>
       <c r="B150" s="2"/>
-      <c r="C150" s="14"/>
+      <c r="C150" s="15"/>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="14"/>
+      <c r="A151" s="15"/>
       <c r="B151" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C151" s="14"/>
+      <c r="C151" s="15"/>
     </row>
     <row r="152" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="14" t="s">
+      <c r="A152" s="15" t="s">
         <v>90</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C152" s="14" t="s">
+      <c r="C152" s="15" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="14"/>
+      <c r="A153" s="15"/>
       <c r="B153" s="2"/>
-      <c r="C153" s="14"/>
+      <c r="C153" s="15"/>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="14"/>
+      <c r="A154" s="15"/>
       <c r="B154" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C154" s="14"/>
+      <c r="C154" s="15"/>
     </row>
     <row r="155" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A155" s="14" t="s">
+      <c r="A155" s="15" t="s">
         <v>90</v>
       </c>
       <c r="B155" s="2" t="s">
@@ -6654,12 +6691,12 @@
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="14"/>
+      <c r="A156" s="15"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="14"/>
+      <c r="A157" s="15"/>
       <c r="B157" s="3" t="s">
         <v>12</v>
       </c>
@@ -6668,54 +6705,54 @@
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" s="14"/>
+      <c r="A158" s="15"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" s="14"/>
+      <c r="A159" s="15"/>
       <c r="B159" s="2"/>
       <c r="C159" s="3" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" s="14"/>
+      <c r="A160" s="15"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" s="14"/>
+      <c r="A161" s="15"/>
       <c r="B161" s="2"/>
       <c r="C161" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="14" t="s">
+      <c r="A162" s="15" t="s">
         <v>90</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C162" s="14" t="s">
+      <c r="C162" s="15" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="14"/>
+      <c r="A163" s="15"/>
       <c r="B163" s="2"/>
-      <c r="C163" s="14"/>
+      <c r="C163" s="15"/>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" s="14"/>
+      <c r="A164" s="15"/>
       <c r="B164" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C164" s="14"/>
+      <c r="C164" s="15"/>
     </row>
     <row r="165" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A165" s="14" t="s">
+      <c r="A165" s="15" t="s">
         <v>90</v>
       </c>
       <c r="B165" s="2" t="s">
@@ -6726,12 +6763,12 @@
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" s="14"/>
+      <c r="A166" s="15"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
     </row>
     <row r="167" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A167" s="14"/>
+      <c r="A167" s="15"/>
       <c r="B167" s="3" t="s">
         <v>12</v>
       </c>
@@ -6740,19 +6777,19 @@
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" s="14"/>
+      <c r="A168" s="15"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
     </row>
     <row r="169" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A169" s="14"/>
+      <c r="A169" s="15"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A170" s="14" t="s">
+      <c r="A170" s="15" t="s">
         <v>90</v>
       </c>
       <c r="B170" s="2" t="s">
@@ -6763,12 +6800,12 @@
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" s="14"/>
+      <c r="A171" s="15"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" s="14"/>
+      <c r="A172" s="15"/>
       <c r="B172" s="3" t="s">
         <v>12</v>
       </c>
@@ -6777,7 +6814,7 @@
       </c>
     </row>
     <row r="173" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A173" s="14" t="s">
+      <c r="A173" s="15" t="s">
         <v>90</v>
       </c>
       <c r="B173" s="2" t="s">
@@ -6788,12 +6825,12 @@
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" s="14"/>
+      <c r="A174" s="15"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
     </row>
     <row r="175" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A175" s="14"/>
+      <c r="A175" s="15"/>
       <c r="B175" s="3" t="s">
         <v>128</v>
       </c>
@@ -6802,30 +6839,30 @@
       </c>
     </row>
     <row r="176" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A176" s="14" t="s">
+      <c r="A176" s="15" t="s">
         <v>90</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C176" s="14" t="s">
+      <c r="C176" s="15" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" s="14"/>
+      <c r="A177" s="15"/>
       <c r="B177" s="2"/>
-      <c r="C177" s="14"/>
+      <c r="C177" s="15"/>
     </row>
     <row r="178" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A178" s="14"/>
+      <c r="A178" s="15"/>
       <c r="B178" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C178" s="14"/>
+      <c r="C178" s="15"/>
     </row>
     <row r="179" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A179" s="14" t="s">
+      <c r="A179" s="15" t="s">
         <v>90</v>
       </c>
       <c r="B179" s="2" t="s">
@@ -6836,12 +6873,12 @@
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" s="14"/>
+      <c r="A180" s="15"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
     </row>
     <row r="181" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A181" s="14"/>
+      <c r="A181" s="15"/>
       <c r="B181" s="3" t="s">
         <v>128</v>
       </c>
@@ -6850,7 +6887,7 @@
       </c>
     </row>
     <row r="182" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A182" s="14" t="s">
+      <c r="A182" s="15" t="s">
         <v>90</v>
       </c>
       <c r="B182" s="2" t="s">
@@ -6861,12 +6898,12 @@
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183" s="14"/>
+      <c r="A183" s="15"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
     </row>
     <row r="184" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A184" s="14"/>
+      <c r="A184" s="15"/>
       <c r="B184" s="3" t="s">
         <v>128</v>
       </c>
@@ -6875,7 +6912,7 @@
       </c>
     </row>
     <row r="185" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A185" s="14" t="s">
+      <c r="A185" s="15" t="s">
         <v>137</v>
       </c>
       <c r="B185" s="2" t="s">
@@ -6886,12 +6923,12 @@
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" s="14"/>
+      <c r="A186" s="15"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" s="14"/>
+      <c r="A187" s="15"/>
       <c r="B187" s="3" t="s">
         <v>12</v>
       </c>
@@ -6900,54 +6937,54 @@
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188" s="14"/>
+      <c r="A188" s="15"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189" s="14"/>
+      <c r="A189" s="15"/>
       <c r="B189" s="2"/>
       <c r="C189" s="3" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190" s="14"/>
+      <c r="A190" s="15"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" s="14"/>
+      <c r="A191" s="15"/>
       <c r="B191" s="2"/>
       <c r="C191" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="14" t="s">
+      <c r="A192" s="15" t="s">
         <v>140</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C192" s="14" t="s">
+      <c r="C192" s="15" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" s="14"/>
+      <c r="A193" s="15"/>
       <c r="B193" s="2"/>
-      <c r="C193" s="14"/>
+      <c r="C193" s="15"/>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194" s="14"/>
+      <c r="A194" s="15"/>
       <c r="B194" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C194" s="14"/>
+      <c r="C194" s="15"/>
     </row>
     <row r="195" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A195" s="14" t="s">
+      <c r="A195" s="15" t="s">
         <v>140</v>
       </c>
       <c r="B195" s="2" t="s">
@@ -6958,12 +6995,12 @@
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196" s="14"/>
+      <c r="A196" s="15"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
     </row>
     <row r="197" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A197" s="14"/>
+      <c r="A197" s="15"/>
       <c r="B197" s="3" t="s">
         <v>12</v>
       </c>
@@ -6972,42 +7009,42 @@
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198" s="14"/>
+      <c r="A198" s="15"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
     </row>
     <row r="199" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A199" s="14"/>
+      <c r="A199" s="15"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="14" t="s">
+      <c r="A200" s="15" t="s">
         <v>140</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C200" s="14" t="s">
+      <c r="C200" s="15" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201" s="14"/>
+      <c r="A201" s="15"/>
       <c r="B201" s="2"/>
-      <c r="C201" s="14"/>
+      <c r="C201" s="15"/>
     </row>
     <row r="202" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A202" s="14"/>
+      <c r="A202" s="15"/>
       <c r="B202" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C202" s="14"/>
+      <c r="C202" s="15"/>
     </row>
     <row r="203" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A203" s="14" t="s">
+      <c r="A203" s="15" t="s">
         <v>140</v>
       </c>
       <c r="B203" s="2" t="s">
@@ -7018,12 +7055,12 @@
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A204" s="14"/>
+      <c r="A204" s="15"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
     </row>
     <row r="205" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A205" s="14"/>
+      <c r="A205" s="15"/>
       <c r="B205" s="3" t="s">
         <v>12</v>
       </c>
@@ -7032,19 +7069,19 @@
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A206" s="14"/>
+      <c r="A206" s="15"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A207" s="14"/>
+      <c r="A207" s="15"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A208" s="14" t="s">
+      <c r="A208" s="15" t="s">
         <v>140</v>
       </c>
       <c r="B208" s="2" t="s">
@@ -7055,12 +7092,12 @@
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209" s="14"/>
+      <c r="A209" s="15"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
     </row>
     <row r="210" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A210" s="14"/>
+      <c r="A210" s="15"/>
       <c r="B210" s="3" t="s">
         <v>12</v>
       </c>
@@ -7069,7 +7106,7 @@
       </c>
     </row>
     <row r="211" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A211" s="14" t="s">
+      <c r="A211" s="15" t="s">
         <v>140</v>
       </c>
       <c r="B211" s="2" t="s">
@@ -7080,12 +7117,12 @@
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A212" s="14"/>
+      <c r="A212" s="15"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
     </row>
     <row r="213" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A213" s="14"/>
+      <c r="A213" s="15"/>
       <c r="B213" s="3" t="s">
         <v>12</v>
       </c>
@@ -7094,7 +7131,7 @@
       </c>
     </row>
     <row r="214" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A214" s="14" t="s">
+      <c r="A214" s="15" t="s">
         <v>140</v>
       </c>
       <c r="B214" s="2" t="s">
@@ -7105,12 +7142,12 @@
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215" s="14"/>
+      <c r="A215" s="15"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
     </row>
     <row r="216" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A216" s="14"/>
+      <c r="A216" s="15"/>
       <c r="B216" s="3" t="s">
         <v>12</v>
       </c>
@@ -7119,77 +7156,77 @@
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A217" s="14"/>
+      <c r="A217" s="15"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A218" s="14"/>
+      <c r="A218" s="15"/>
       <c r="B218" s="2"/>
       <c r="C218" s="3" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A219" s="14"/>
+      <c r="A219" s="15"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220" s="14"/>
+      <c r="A220" s="15"/>
       <c r="B220" s="2"/>
       <c r="C220" s="3" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="14" t="s">
+      <c r="A221" s="15" t="s">
         <v>140</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C221" s="14" t="s">
+      <c r="C221" s="15" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A222" s="14"/>
+      <c r="A222" s="15"/>
       <c r="B222" s="2"/>
-      <c r="C222" s="14"/>
+      <c r="C222" s="15"/>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A223" s="14"/>
+      <c r="A223" s="15"/>
       <c r="B223" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C223" s="14"/>
+      <c r="C223" s="15"/>
     </row>
     <row r="224" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="14" t="s">
+      <c r="A224" s="15" t="s">
         <v>140</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C224" s="14" t="s">
+      <c r="C224" s="15" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A225" s="14"/>
+      <c r="A225" s="15"/>
       <c r="B225" s="2"/>
-      <c r="C225" s="14"/>
+      <c r="C225" s="15"/>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A226" s="14"/>
+      <c r="A226" s="15"/>
       <c r="B226" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C226" s="14"/>
+      <c r="C226" s="15"/>
     </row>
     <row r="227" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A227" s="14" t="s">
+      <c r="A227" s="15" t="s">
         <v>140</v>
       </c>
       <c r="B227" s="2" t="s">
@@ -7200,12 +7237,12 @@
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A228" s="14"/>
+      <c r="A228" s="15"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A229" s="14"/>
+      <c r="A229" s="15"/>
       <c r="B229" s="3" t="s">
         <v>12</v>
       </c>
@@ -7214,31 +7251,31 @@
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A230" s="14"/>
+      <c r="A230" s="15"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A231" s="14"/>
+      <c r="A231" s="15"/>
       <c r="B231" s="2"/>
       <c r="C231" s="3" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A232" s="14"/>
+      <c r="A232" s="15"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A233" s="14"/>
+      <c r="A233" s="15"/>
       <c r="B233" s="2"/>
       <c r="C233" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A234" s="14" t="s">
+      <c r="A234" s="15" t="s">
         <v>140</v>
       </c>
       <c r="B234" s="2" t="s">
@@ -7249,12 +7286,12 @@
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A235" s="14"/>
+      <c r="A235" s="15"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
     </row>
     <row r="236" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A236" s="14"/>
+      <c r="A236" s="15"/>
       <c r="B236" s="3" t="s">
         <v>5</v>
       </c>
@@ -7263,7 +7300,7 @@
       </c>
     </row>
     <row r="237" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A237" s="14" t="s">
+      <c r="A237" s="15" t="s">
         <v>140</v>
       </c>
       <c r="B237" s="2" t="s">
@@ -7274,12 +7311,12 @@
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A238" s="14"/>
+      <c r="A238" s="15"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
     </row>
     <row r="239" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A239" s="14"/>
+      <c r="A239" s="15"/>
       <c r="B239" s="3" t="s">
         <v>12</v>
       </c>
@@ -7288,19 +7325,19 @@
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A240" s="14"/>
+      <c r="A240" s="15"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
     </row>
     <row r="241" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A241" s="14"/>
+      <c r="A241" s="15"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A242" s="14" t="s">
+      <c r="A242" s="15" t="s">
         <v>140</v>
       </c>
       <c r="B242" s="2" t="s">
@@ -7311,12 +7348,12 @@
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A243" s="14"/>
+      <c r="A243" s="15"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
     </row>
     <row r="244" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A244" s="14"/>
+      <c r="A244" s="15"/>
       <c r="B244" s="3" t="s">
         <v>12</v>
       </c>
@@ -7325,19 +7362,19 @@
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A245" s="14"/>
+      <c r="A245" s="15"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
     </row>
     <row r="246" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A246" s="14"/>
+      <c r="A246" s="15"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A247" s="14" t="s">
+      <c r="A247" s="15" t="s">
         <v>140</v>
       </c>
       <c r="B247" s="2" t="s">
@@ -7348,12 +7385,12 @@
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A248" s="14"/>
+      <c r="A248" s="15"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A249" s="14"/>
+      <c r="A249" s="15"/>
       <c r="B249" s="3" t="s">
         <v>12</v>
       </c>
@@ -7362,43 +7399,43 @@
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A250" s="14"/>
+      <c r="A250" s="15"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
     </row>
     <row r="251" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A251" s="14"/>
+      <c r="A251" s="15"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A252" s="14"/>
+      <c r="A252" s="15"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
     </row>
     <row r="253" spans="1:3" ht="165" x14ac:dyDescent="0.25">
-      <c r="A253" s="14"/>
+      <c r="A253" s="15"/>
       <c r="B253" s="2"/>
       <c r="C253" s="3" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A254" s="14"/>
+      <c r="A254" s="15"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
     </row>
     <row r="255" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A255" s="14"/>
+      <c r="A255" s="15"/>
       <c r="B255" s="2"/>
       <c r="C255" s="3" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A256" s="14" t="s">
+      <c r="A256" s="15" t="s">
         <v>140</v>
       </c>
       <c r="B256" s="2" t="s">
@@ -7409,12 +7446,12 @@
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A257" s="14"/>
+      <c r="A257" s="15"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A258" s="14"/>
+      <c r="A258" s="15"/>
       <c r="B258" s="3" t="s">
         <v>12</v>
       </c>
@@ -7423,31 +7460,31 @@
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A259" s="14"/>
+      <c r="A259" s="15"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A260" s="14"/>
+      <c r="A260" s="15"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A261" s="14"/>
+      <c r="A261" s="15"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
     </row>
     <row r="262" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A262" s="14"/>
+      <c r="A262" s="15"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A263" s="14" t="s">
+      <c r="A263" s="15" t="s">
         <v>140</v>
       </c>
       <c r="B263" s="2" t="s">
@@ -7458,12 +7495,12 @@
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A264" s="14"/>
+      <c r="A264" s="15"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A265" s="14"/>
+      <c r="A265" s="15"/>
       <c r="B265" s="3" t="s">
         <v>12</v>
       </c>
@@ -7472,7 +7509,7 @@
       </c>
     </row>
     <row r="266" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A266" s="14" t="s">
+      <c r="A266" s="15" t="s">
         <v>140</v>
       </c>
       <c r="B266" s="2" t="s">
@@ -7483,12 +7520,12 @@
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A267" s="14"/>
+      <c r="A267" s="15"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A268" s="14"/>
+      <c r="A268" s="15"/>
       <c r="B268" s="3" t="s">
         <v>12</v>
       </c>
@@ -7497,31 +7534,31 @@
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A269" s="14"/>
+      <c r="A269" s="15"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A270" s="14"/>
+      <c r="A270" s="15"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A271" s="14"/>
+      <c r="A271" s="15"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
     </row>
     <row r="272" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A272" s="14"/>
+      <c r="A272" s="15"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A273" s="14" t="s">
+      <c r="A273" s="15" t="s">
         <v>140</v>
       </c>
       <c r="B273" s="2" t="s">
@@ -7532,12 +7569,12 @@
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A274" s="14"/>
+      <c r="A274" s="15"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A275" s="14"/>
+      <c r="A275" s="15"/>
       <c r="B275" s="3" t="s">
         <v>12</v>
       </c>
@@ -7546,7 +7583,7 @@
       </c>
     </row>
     <row r="276" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A276" s="14" t="s">
+      <c r="A276" s="15" t="s">
         <v>140</v>
       </c>
       <c r="B276" s="2" t="s">
@@ -7557,12 +7594,12 @@
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A277" s="14"/>
+      <c r="A277" s="15"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
     </row>
     <row r="278" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A278" s="14"/>
+      <c r="A278" s="15"/>
       <c r="B278" s="3" t="s">
         <v>12</v>
       </c>
@@ -7571,7 +7608,7 @@
       </c>
     </row>
     <row r="279" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A279" s="14" t="s">
+      <c r="A279" s="15" t="s">
         <v>140</v>
       </c>
       <c r="B279" s="2" t="s">
@@ -7582,12 +7619,12 @@
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A280" s="14"/>
+      <c r="A280" s="15"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A281" s="14"/>
+      <c r="A281" s="15"/>
       <c r="B281" s="3" t="s">
         <v>12</v>
       </c>
@@ -7596,19 +7633,19 @@
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A282" s="14"/>
+      <c r="A282" s="15"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A283" s="14"/>
+      <c r="A283" s="15"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A284" s="14" t="s">
+      <c r="A284" s="15" t="s">
         <v>140</v>
       </c>
       <c r="B284" s="2" t="s">
@@ -7619,12 +7656,12 @@
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A285" s="14"/>
+      <c r="A285" s="15"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
     </row>
     <row r="286" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A286" s="14"/>
+      <c r="A286" s="15"/>
       <c r="B286" s="3" t="s">
         <v>12</v>
       </c>
@@ -7633,7 +7670,7 @@
       </c>
     </row>
     <row r="287" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A287" s="14" t="s">
+      <c r="A287" s="15" t="s">
         <v>209</v>
       </c>
       <c r="B287" s="2" t="s">
@@ -7644,12 +7681,12 @@
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A288" s="14"/>
+      <c r="A288" s="15"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
     </row>
     <row r="289" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A289" s="14"/>
+      <c r="A289" s="15"/>
       <c r="B289" s="3" t="s">
         <v>12</v>
       </c>
@@ -7658,78 +7695,78 @@
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A290" s="14"/>
+      <c r="A290" s="15"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A291" s="14"/>
+      <c r="A291" s="15"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A292" s="14"/>
+      <c r="A292" s="15"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
     </row>
     <row r="293" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A293" s="14"/>
+      <c r="A293" s="15"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A294" s="14"/>
+      <c r="A294" s="15"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
     </row>
     <row r="295" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A295" s="14"/>
+      <c r="A295" s="15"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="296" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A296" s="14" t="s">
+      <c r="A296" s="15" t="s">
         <v>209</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C296" s="14" t="s">
+      <c r="C296" s="15" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A297" s="14"/>
+      <c r="A297" s="15"/>
       <c r="B297" s="2"/>
-      <c r="C297" s="14"/>
+      <c r="C297" s="15"/>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A298" s="14"/>
+      <c r="A298" s="15"/>
       <c r="B298" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C298" s="14"/>
+      <c r="C298" s="15"/>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A299" s="14"/>
+      <c r="A299" s="15"/>
       <c r="B299" s="2"/>
-      <c r="C299" s="14"/>
+      <c r="C299" s="15"/>
     </row>
     <row r="300" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A300" s="14"/>
+      <c r="A300" s="15"/>
       <c r="B300" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C300" s="14"/>
+      <c r="C300" s="15"/>
     </row>
     <row r="301" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A301" s="14" t="s">
+      <c r="A301" s="15" t="s">
         <v>219</v>
       </c>
       <c r="B301" s="2" t="s">
@@ -7740,12 +7777,12 @@
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A302" s="14"/>
+      <c r="A302" s="15"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
     </row>
     <row r="303" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A303" s="14"/>
+      <c r="A303" s="15"/>
       <c r="B303" s="3" t="s">
         <v>12</v>
       </c>
@@ -7754,19 +7791,19 @@
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A304" s="14"/>
+      <c r="A304" s="15"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A305" s="14"/>
+      <c r="A305" s="15"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A306" s="14" t="s">
+      <c r="A306" s="15" t="s">
         <v>219</v>
       </c>
       <c r="B306" s="2" t="s">
@@ -7777,12 +7814,12 @@
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A307" s="14"/>
+      <c r="A307" s="15"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A308" s="14"/>
+      <c r="A308" s="15"/>
       <c r="B308" s="3" t="s">
         <v>12</v>
       </c>
@@ -7791,7 +7828,7 @@
       </c>
     </row>
     <row r="309" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A309" s="14" t="s">
+      <c r="A309" s="15" t="s">
         <v>227</v>
       </c>
       <c r="B309" s="2" t="s">
@@ -7802,12 +7839,12 @@
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A310" s="14"/>
+      <c r="A310" s="15"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A311" s="14"/>
+      <c r="A311" s="15"/>
       <c r="B311" s="3" t="s">
         <v>5</v>
       </c>
@@ -7816,53 +7853,53 @@
       </c>
     </row>
     <row r="312" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A312" s="14" t="s">
+      <c r="A312" s="15" t="s">
         <v>227</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C312" s="14" t="s">
+      <c r="C312" s="15" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A313" s="14"/>
+      <c r="A313" s="15"/>
       <c r="B313" s="2"/>
-      <c r="C313" s="14"/>
+      <c r="C313" s="15"/>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A314" s="14"/>
+      <c r="A314" s="15"/>
       <c r="B314" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C314" s="14"/>
+      <c r="C314" s="15"/>
     </row>
     <row r="315" spans="1:3" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A315" s="14" t="s">
+      <c r="A315" s="15" t="s">
         <v>227</v>
       </c>
       <c r="B315" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C315" s="15" t="s">
+      <c r="C315" s="16" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A316" s="14"/>
+      <c r="A316" s="15"/>
       <c r="B316" s="2"/>
-      <c r="C316" s="15"/>
+      <c r="C316" s="16"/>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A317" s="14"/>
+      <c r="A317" s="15"/>
       <c r="B317" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C317" s="15"/>
+      <c r="C317" s="16"/>
     </row>
     <row r="318" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A318" s="14" t="s">
+      <c r="A318" s="15" t="s">
         <v>235</v>
       </c>
       <c r="B318" s="2" t="s">
@@ -7873,12 +7910,12 @@
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A319" s="14"/>
+      <c r="A319" s="15"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A320" s="14"/>
+      <c r="A320" s="15"/>
       <c r="B320" s="3" t="s">
         <v>12</v>
       </c>
@@ -7887,19 +7924,19 @@
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A321" s="14"/>
+      <c r="A321" s="15"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A322" s="14"/>
+      <c r="A322" s="15"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="323" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A323" s="14" t="s">
+      <c r="A323" s="15" t="s">
         <v>235</v>
       </c>
       <c r="B323" s="2" t="s">
@@ -7910,12 +7947,12 @@
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A324" s="14"/>
+      <c r="A324" s="15"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A325" s="14"/>
+      <c r="A325" s="15"/>
       <c r="B325" s="3" t="s">
         <v>12</v>
       </c>
@@ -7924,19 +7961,19 @@
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A326" s="14"/>
+      <c r="A326" s="15"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A327" s="14"/>
+      <c r="A327" s="15"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="328" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A328" s="14" t="s">
+      <c r="A328" s="15" t="s">
         <v>244</v>
       </c>
       <c r="B328" s="2" t="s">
@@ -7947,12 +7984,12 @@
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A329" s="14"/>
+      <c r="A329" s="15"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A330" s="14"/>
+      <c r="A330" s="15"/>
       <c r="B330" s="3" t="s">
         <v>12</v>
       </c>
@@ -7961,155 +7998,217 @@
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A331" s="14"/>
+      <c r="A331" s="15"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A332" s="14"/>
+      <c r="A332" s="15"/>
       <c r="B332" s="2"/>
       <c r="C332" s="3" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A333" s="14"/>
+      <c r="A333" s="15"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A334" s="14"/>
+      <c r="A334" s="15"/>
       <c r="B334" s="2"/>
       <c r="C334" s="3" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A335" s="14"/>
+      <c r="A335" s="15"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
     </row>
     <row r="336" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A336" s="14"/>
+      <c r="A336" s="15"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A337" s="14"/>
+      <c r="A337" s="15"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
     </row>
     <row r="338" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A338" s="14"/>
+      <c r="A338" s="15"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A339" s="14"/>
+      <c r="A339" s="15"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
     </row>
     <row r="340" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A340" s="14"/>
+      <c r="A340" s="15"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="341" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A341" s="14" t="s">
+      <c r="A341" s="15" t="s">
         <v>244</v>
       </c>
       <c r="B341" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C341" s="14" t="s">
+      <c r="C341" s="15" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A342" s="14"/>
+      <c r="A342" s="15"/>
       <c r="B342" s="2"/>
-      <c r="C342" s="14"/>
+      <c r="C342" s="15"/>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A343" s="14"/>
+      <c r="A343" s="15"/>
       <c r="B343" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C343" s="14"/>
+      <c r="C343" s="15"/>
     </row>
     <row r="344" spans="1:3" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A344" s="14" t="s">
+      <c r="A344" s="15" t="s">
         <v>244</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C344" s="14" t="s">
+      <c r="C344" s="15" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A345" s="14"/>
+      <c r="A345" s="15"/>
       <c r="B345" s="2"/>
-      <c r="C345" s="14"/>
+      <c r="C345" s="15"/>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A346" s="14"/>
+      <c r="A346" s="15"/>
       <c r="B346" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C346" s="14"/>
+      <c r="C346" s="15"/>
     </row>
     <row r="347" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A347" s="14" t="s">
+      <c r="A347" s="15" t="s">
         <v>244</v>
       </c>
       <c r="B347" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C347" s="15" t="s">
+      <c r="C347" s="16" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A348" s="14"/>
+      <c r="A348" s="15"/>
       <c r="B348" s="2"/>
-      <c r="C348" s="15"/>
+      <c r="C348" s="16"/>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A349" s="14"/>
+      <c r="A349" s="15"/>
       <c r="B349" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C349" s="15"/>
+      <c r="C349" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="114">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="A20:A28"/>
-    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="A347:A349"/>
+    <mergeCell ref="C347:C349"/>
+    <mergeCell ref="A318:A322"/>
+    <mergeCell ref="A323:A327"/>
+    <mergeCell ref="A328:A340"/>
+    <mergeCell ref="A341:A343"/>
+    <mergeCell ref="C341:C343"/>
+    <mergeCell ref="A344:A346"/>
+    <mergeCell ref="C344:C346"/>
+    <mergeCell ref="A306:A308"/>
+    <mergeCell ref="A309:A311"/>
+    <mergeCell ref="A312:A314"/>
+    <mergeCell ref="C312:C314"/>
+    <mergeCell ref="A315:A317"/>
+    <mergeCell ref="C315:C317"/>
+    <mergeCell ref="A279:A283"/>
+    <mergeCell ref="A284:A286"/>
+    <mergeCell ref="A287:A295"/>
+    <mergeCell ref="A296:A300"/>
+    <mergeCell ref="C296:C300"/>
+    <mergeCell ref="A301:A305"/>
+    <mergeCell ref="A247:A255"/>
+    <mergeCell ref="A256:A262"/>
+    <mergeCell ref="A263:A265"/>
+    <mergeCell ref="A266:A272"/>
+    <mergeCell ref="A273:A275"/>
+    <mergeCell ref="A276:A278"/>
+    <mergeCell ref="A224:A226"/>
+    <mergeCell ref="C224:C226"/>
+    <mergeCell ref="A227:A233"/>
+    <mergeCell ref="A234:A236"/>
+    <mergeCell ref="A237:A241"/>
+    <mergeCell ref="A242:A246"/>
+    <mergeCell ref="A203:A207"/>
+    <mergeCell ref="A208:A210"/>
+    <mergeCell ref="A211:A213"/>
+    <mergeCell ref="A214:A220"/>
+    <mergeCell ref="A221:A223"/>
+    <mergeCell ref="C221:C223"/>
+    <mergeCell ref="A185:A191"/>
+    <mergeCell ref="A192:A194"/>
+    <mergeCell ref="C192:C194"/>
+    <mergeCell ref="A195:A199"/>
+    <mergeCell ref="A200:A202"/>
+    <mergeCell ref="C200:C202"/>
+    <mergeCell ref="A170:A172"/>
+    <mergeCell ref="A173:A175"/>
+    <mergeCell ref="A176:A178"/>
+    <mergeCell ref="C176:C178"/>
+    <mergeCell ref="A179:A181"/>
+    <mergeCell ref="A182:A184"/>
+    <mergeCell ref="A152:A154"/>
+    <mergeCell ref="C152:C154"/>
+    <mergeCell ref="A155:A161"/>
+    <mergeCell ref="A162:A164"/>
+    <mergeCell ref="C162:C164"/>
+    <mergeCell ref="A165:A169"/>
+    <mergeCell ref="A136:A140"/>
+    <mergeCell ref="A141:A145"/>
+    <mergeCell ref="A146:A148"/>
+    <mergeCell ref="C146:C148"/>
+    <mergeCell ref="A149:A151"/>
+    <mergeCell ref="C149:C151"/>
+    <mergeCell ref="A111:A113"/>
+    <mergeCell ref="C111:C113"/>
+    <mergeCell ref="A114:A122"/>
+    <mergeCell ref="A123:A127"/>
+    <mergeCell ref="A128:A130"/>
+    <mergeCell ref="A131:A135"/>
+    <mergeCell ref="A85:A95"/>
+    <mergeCell ref="A96:A104"/>
+    <mergeCell ref="A105:A107"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="A108:A110"/>
+    <mergeCell ref="C108:C110"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="A79:A81"/>
+    <mergeCell ref="C79:C81"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="C82:C84"/>
     <mergeCell ref="A64:A66"/>
     <mergeCell ref="C64:C66"/>
     <mergeCell ref="A67:A69"/>
@@ -8124,87 +8223,25 @@
     <mergeCell ref="A58:A60"/>
     <mergeCell ref="A61:A63"/>
     <mergeCell ref="C61:C63"/>
-    <mergeCell ref="A85:A95"/>
-    <mergeCell ref="A96:A104"/>
-    <mergeCell ref="A105:A107"/>
-    <mergeCell ref="C105:C107"/>
-    <mergeCell ref="A108:A110"/>
-    <mergeCell ref="C108:C110"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="A79:A81"/>
-    <mergeCell ref="C79:C81"/>
-    <mergeCell ref="A82:A84"/>
-    <mergeCell ref="C82:C84"/>
-    <mergeCell ref="A136:A140"/>
-    <mergeCell ref="A141:A145"/>
-    <mergeCell ref="A146:A148"/>
-    <mergeCell ref="C146:C148"/>
-    <mergeCell ref="A149:A151"/>
-    <mergeCell ref="C149:C151"/>
-    <mergeCell ref="A111:A113"/>
-    <mergeCell ref="C111:C113"/>
-    <mergeCell ref="A114:A122"/>
-    <mergeCell ref="A123:A127"/>
-    <mergeCell ref="A128:A130"/>
-    <mergeCell ref="A131:A135"/>
-    <mergeCell ref="A170:A172"/>
-    <mergeCell ref="A173:A175"/>
-    <mergeCell ref="A176:A178"/>
-    <mergeCell ref="C176:C178"/>
-    <mergeCell ref="A179:A181"/>
-    <mergeCell ref="A182:A184"/>
-    <mergeCell ref="A152:A154"/>
-    <mergeCell ref="C152:C154"/>
-    <mergeCell ref="A155:A161"/>
-    <mergeCell ref="A162:A164"/>
-    <mergeCell ref="C162:C164"/>
-    <mergeCell ref="A165:A169"/>
-    <mergeCell ref="A203:A207"/>
-    <mergeCell ref="A208:A210"/>
-    <mergeCell ref="A211:A213"/>
-    <mergeCell ref="A214:A220"/>
-    <mergeCell ref="A221:A223"/>
-    <mergeCell ref="C221:C223"/>
-    <mergeCell ref="A185:A191"/>
-    <mergeCell ref="A192:A194"/>
-    <mergeCell ref="C192:C194"/>
-    <mergeCell ref="A195:A199"/>
-    <mergeCell ref="A200:A202"/>
-    <mergeCell ref="C200:C202"/>
-    <mergeCell ref="A247:A255"/>
-    <mergeCell ref="A256:A262"/>
-    <mergeCell ref="A263:A265"/>
-    <mergeCell ref="A266:A272"/>
-    <mergeCell ref="A273:A275"/>
-    <mergeCell ref="A276:A278"/>
-    <mergeCell ref="A224:A226"/>
-    <mergeCell ref="C224:C226"/>
-    <mergeCell ref="A227:A233"/>
-    <mergeCell ref="A234:A236"/>
-    <mergeCell ref="A237:A241"/>
-    <mergeCell ref="A242:A246"/>
-    <mergeCell ref="A306:A308"/>
-    <mergeCell ref="A309:A311"/>
-    <mergeCell ref="A312:A314"/>
-    <mergeCell ref="C312:C314"/>
-    <mergeCell ref="A315:A317"/>
-    <mergeCell ref="C315:C317"/>
-    <mergeCell ref="A279:A283"/>
-    <mergeCell ref="A284:A286"/>
-    <mergeCell ref="A287:A295"/>
-    <mergeCell ref="A296:A300"/>
-    <mergeCell ref="C296:C300"/>
-    <mergeCell ref="A301:A305"/>
-    <mergeCell ref="A347:A349"/>
-    <mergeCell ref="C347:C349"/>
-    <mergeCell ref="A318:A322"/>
-    <mergeCell ref="A323:A327"/>
-    <mergeCell ref="A328:A340"/>
-    <mergeCell ref="A341:A343"/>
-    <mergeCell ref="C341:C343"/>
-    <mergeCell ref="A344:A346"/>
-    <mergeCell ref="C344:C346"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="C36:C38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C17" r:id="rId1" display="https://msdn.microsoft.com/en-us/library/dd239405.aspx"/>

--- a/sqlserver2012/docs/sql2012_ParamGenerator.xlsx
+++ b/sqlserver2012/docs/sql2012_ParamGenerator.xlsx
@@ -2773,9 +2773,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4675,9 +4675,6 @@
       <c r="D51" s="9" t="s">
         <v>569</v>
       </c>
-      <c r="F51" t="b">
-        <v>1</v>
-      </c>
       <c r="G51" t="str">
         <f t="shared" si="5"/>
         <v>ADDCURRENTUSERASSQLADMIN</v>
@@ -4690,11 +4687,11 @@
         <v>1</v>
       </c>
       <c r="J51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" t="str">
         <f t="shared" si="2"/>
-        <v>if (!(Test-Path env:\choco:sqlserver2012:ADDCURRENTUSERASSQLADMIN)){$env:choco:sqlserver2012:ADDCURRENTUSERASSQLADMIN="TRUE"}</v>
+        <v/>
       </c>
       <c r="L51" t="str">
         <f t="shared" si="3"/>
@@ -8128,87 +8125,25 @@
     </row>
   </sheetData>
   <mergeCells count="114">
-    <mergeCell ref="A347:A349"/>
-    <mergeCell ref="C347:C349"/>
-    <mergeCell ref="A318:A322"/>
-    <mergeCell ref="A323:A327"/>
-    <mergeCell ref="A328:A340"/>
-    <mergeCell ref="A341:A343"/>
-    <mergeCell ref="C341:C343"/>
-    <mergeCell ref="A344:A346"/>
-    <mergeCell ref="C344:C346"/>
-    <mergeCell ref="A306:A308"/>
-    <mergeCell ref="A309:A311"/>
-    <mergeCell ref="A312:A314"/>
-    <mergeCell ref="C312:C314"/>
-    <mergeCell ref="A315:A317"/>
-    <mergeCell ref="C315:C317"/>
-    <mergeCell ref="A279:A283"/>
-    <mergeCell ref="A284:A286"/>
-    <mergeCell ref="A287:A295"/>
-    <mergeCell ref="A296:A300"/>
-    <mergeCell ref="C296:C300"/>
-    <mergeCell ref="A301:A305"/>
-    <mergeCell ref="A247:A255"/>
-    <mergeCell ref="A256:A262"/>
-    <mergeCell ref="A263:A265"/>
-    <mergeCell ref="A266:A272"/>
-    <mergeCell ref="A273:A275"/>
-    <mergeCell ref="A276:A278"/>
-    <mergeCell ref="A224:A226"/>
-    <mergeCell ref="C224:C226"/>
-    <mergeCell ref="A227:A233"/>
-    <mergeCell ref="A234:A236"/>
-    <mergeCell ref="A237:A241"/>
-    <mergeCell ref="A242:A246"/>
-    <mergeCell ref="A203:A207"/>
-    <mergeCell ref="A208:A210"/>
-    <mergeCell ref="A211:A213"/>
-    <mergeCell ref="A214:A220"/>
-    <mergeCell ref="A221:A223"/>
-    <mergeCell ref="C221:C223"/>
-    <mergeCell ref="A185:A191"/>
-    <mergeCell ref="A192:A194"/>
-    <mergeCell ref="C192:C194"/>
-    <mergeCell ref="A195:A199"/>
-    <mergeCell ref="A200:A202"/>
-    <mergeCell ref="C200:C202"/>
-    <mergeCell ref="A170:A172"/>
-    <mergeCell ref="A173:A175"/>
-    <mergeCell ref="A176:A178"/>
-    <mergeCell ref="C176:C178"/>
-    <mergeCell ref="A179:A181"/>
-    <mergeCell ref="A182:A184"/>
-    <mergeCell ref="A152:A154"/>
-    <mergeCell ref="C152:C154"/>
-    <mergeCell ref="A155:A161"/>
-    <mergeCell ref="A162:A164"/>
-    <mergeCell ref="C162:C164"/>
-    <mergeCell ref="A165:A169"/>
-    <mergeCell ref="A136:A140"/>
-    <mergeCell ref="A141:A145"/>
-    <mergeCell ref="A146:A148"/>
-    <mergeCell ref="C146:C148"/>
-    <mergeCell ref="A149:A151"/>
-    <mergeCell ref="C149:C151"/>
-    <mergeCell ref="A111:A113"/>
-    <mergeCell ref="C111:C113"/>
-    <mergeCell ref="A114:A122"/>
-    <mergeCell ref="A123:A127"/>
-    <mergeCell ref="A128:A130"/>
-    <mergeCell ref="A131:A135"/>
-    <mergeCell ref="A85:A95"/>
-    <mergeCell ref="A96:A104"/>
-    <mergeCell ref="A105:A107"/>
-    <mergeCell ref="C105:C107"/>
-    <mergeCell ref="A108:A110"/>
-    <mergeCell ref="C108:C110"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="A79:A81"/>
-    <mergeCell ref="C79:C81"/>
-    <mergeCell ref="A82:A84"/>
-    <mergeCell ref="C82:C84"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="A29:A35"/>
     <mergeCell ref="A64:A66"/>
     <mergeCell ref="C64:C66"/>
     <mergeCell ref="A67:A69"/>
@@ -8223,25 +8158,87 @@
     <mergeCell ref="A58:A60"/>
     <mergeCell ref="A61:A63"/>
     <mergeCell ref="C61:C63"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="A20:A28"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="A85:A95"/>
+    <mergeCell ref="A96:A104"/>
+    <mergeCell ref="A105:A107"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="A108:A110"/>
+    <mergeCell ref="C108:C110"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="A79:A81"/>
+    <mergeCell ref="C79:C81"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="C82:C84"/>
+    <mergeCell ref="A136:A140"/>
+    <mergeCell ref="A141:A145"/>
+    <mergeCell ref="A146:A148"/>
+    <mergeCell ref="C146:C148"/>
+    <mergeCell ref="A149:A151"/>
+    <mergeCell ref="C149:C151"/>
+    <mergeCell ref="A111:A113"/>
+    <mergeCell ref="C111:C113"/>
+    <mergeCell ref="A114:A122"/>
+    <mergeCell ref="A123:A127"/>
+    <mergeCell ref="A128:A130"/>
+    <mergeCell ref="A131:A135"/>
+    <mergeCell ref="A170:A172"/>
+    <mergeCell ref="A173:A175"/>
+    <mergeCell ref="A176:A178"/>
+    <mergeCell ref="C176:C178"/>
+    <mergeCell ref="A179:A181"/>
+    <mergeCell ref="A182:A184"/>
+    <mergeCell ref="A152:A154"/>
+    <mergeCell ref="C152:C154"/>
+    <mergeCell ref="A155:A161"/>
+    <mergeCell ref="A162:A164"/>
+    <mergeCell ref="C162:C164"/>
+    <mergeCell ref="A165:A169"/>
+    <mergeCell ref="A203:A207"/>
+    <mergeCell ref="A208:A210"/>
+    <mergeCell ref="A211:A213"/>
+    <mergeCell ref="A214:A220"/>
+    <mergeCell ref="A221:A223"/>
+    <mergeCell ref="C221:C223"/>
+    <mergeCell ref="A185:A191"/>
+    <mergeCell ref="A192:A194"/>
+    <mergeCell ref="C192:C194"/>
+    <mergeCell ref="A195:A199"/>
+    <mergeCell ref="A200:A202"/>
+    <mergeCell ref="C200:C202"/>
+    <mergeCell ref="A247:A255"/>
+    <mergeCell ref="A256:A262"/>
+    <mergeCell ref="A263:A265"/>
+    <mergeCell ref="A266:A272"/>
+    <mergeCell ref="A273:A275"/>
+    <mergeCell ref="A276:A278"/>
+    <mergeCell ref="A224:A226"/>
+    <mergeCell ref="C224:C226"/>
+    <mergeCell ref="A227:A233"/>
+    <mergeCell ref="A234:A236"/>
+    <mergeCell ref="A237:A241"/>
+    <mergeCell ref="A242:A246"/>
+    <mergeCell ref="A306:A308"/>
+    <mergeCell ref="A309:A311"/>
+    <mergeCell ref="A312:A314"/>
+    <mergeCell ref="C312:C314"/>
+    <mergeCell ref="A315:A317"/>
+    <mergeCell ref="C315:C317"/>
+    <mergeCell ref="A279:A283"/>
+    <mergeCell ref="A284:A286"/>
+    <mergeCell ref="A287:A295"/>
+    <mergeCell ref="A296:A300"/>
+    <mergeCell ref="C296:C300"/>
+    <mergeCell ref="A301:A305"/>
+    <mergeCell ref="A347:A349"/>
+    <mergeCell ref="C347:C349"/>
+    <mergeCell ref="A318:A322"/>
+    <mergeCell ref="A323:A327"/>
+    <mergeCell ref="A328:A340"/>
+    <mergeCell ref="A341:A343"/>
+    <mergeCell ref="C341:C343"/>
+    <mergeCell ref="A344:A346"/>
+    <mergeCell ref="C344:C346"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C17" r:id="rId1" display="https://msdn.microsoft.com/en-us/library/dd239405.aspx"/>
